--- a/2019_20/MiniProjet/plot.xlsx
+++ b/2019_20/MiniProjet/plot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\ELE_BA1_INFO\CPP\2019_20\MiniProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C5F51FB-55D0-4495-BCEE-FAFA3D71FF71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABE869A-243B-4F5A-81F3-CC91AC27DC0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27900" windowHeight="16440" xr2:uid="{440939E0-212F-4531-86BB-0357610FA3F4}"/>
   </bookViews>
@@ -31,11 +31,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Projet</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Erreur</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,12 +148,379 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Erreur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58593799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58984400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0000000000000286E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.2000000000000119E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5000000000000084E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.0999999999999961E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-7.0000000000000062E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.00000000000089E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-450C-4202-A76E-3D2F9D207B55}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="537656336"/>
+        <c:axId val="537657976"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="537656336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537657976"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="537657976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="537656336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>p'=f(p)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Demo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -161,71 +545,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="25000"/>
-                    <a:lumOff val="75000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="1"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <a:prstGeom prst="wedgeRectCallout">
-                    <a:avLst/>
-                  </a:prstGeom>
-                  <a:noFill/>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                </c15:spPr>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -242,15 +567,18 @@
                   <c:v>0.58593799999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.58984400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.59375</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.625</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.75</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -258,10 +586,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$11</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -269,24 +597,27 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>3.8100000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13</c:v>
+                  <c:v>0.19189999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34</c:v>
+                  <c:v>0.33560000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54</c:v>
+                  <c:v>0.43830000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96</c:v>
+                  <c:v>0.53110000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.97340000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -295,7 +626,130 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-332C-4173-B419-EA20179DE2A4}"/>
+              <c16:uniqueId val="{00000000-DDEA-45CA-9429-A9FE278F9D00}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Projet</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.578125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.58593799999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58984400000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59375</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43020000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52410000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97319999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDEA-45CA-9429-A9FE278F9D00}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -307,11 +761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="455935648"/>
-        <c:axId val="455937944"/>
+        <c:axId val="537663224"/>
+        <c:axId val="537661256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="455935648"/>
+        <c:axId val="537663224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -331,7 +785,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -368,12 +822,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455937944"/>
+        <c:crossAx val="537661256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="455937944"/>
+        <c:axId val="537661256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,21 +847,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="5000"/>
-                  <a:lumOff val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -444,7 +884,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455935648"/>
+        <c:crossAx val="537663224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -456,6 +896,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -540,8 +1011,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -568,8 +1079,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -670,7 +1181,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -702,6 +1213,509 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -1060,23 +2074,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E4CB7A-CC98-4A57-9F44-5DA8F8886536}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40F0AF9C-6370-4DFE-AC76-37D271821FFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1089,6 +2103,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37663B0F-DA5A-4DF2-BF7C-27E1907B5914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1394,84 +2444,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D8F886-D923-43A9-BB24-83708C787FFA}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <f>C2-B2</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>0.5</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D11" si="0">C3-B3</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>0.5625</v>
       </c>
-      <c r="B3">
-        <v>0.04</v>
+      <c r="B4" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0000000000000286E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>0.578125</v>
       </c>
-      <c r="B4">
-        <v>0.13</v>
+      <c r="B5" s="1">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1991</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>7.2000000000000119E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>0.58593799999999996</v>
       </c>
-      <c r="B5">
-        <v>0.34</v>
+      <c r="B6" s="1">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5000000000000084E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>0.58984400000000003</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.43020000000000003</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.0999999999999961E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>0.59375</v>
       </c>
-      <c r="B6">
-        <v>0.54</v>
+      <c r="B8" s="1">
+        <v>0.53110000000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.52410000000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.0000000000000062E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>0.625</v>
       </c>
-      <c r="B7">
-        <v>0.96</v>
+      <c r="B9" s="1">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.97319999999999995</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.00000000000089E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>0.75</v>
       </c>
-      <c r="B8">
+      <c r="B10" s="1">
         <v>1</v>
       </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B11" s="1">
         <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
